--- a/data/trans_orig/P34C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34C1_2023-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5818DB9-F782-4C35-A1C4-2F547B50D33F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D665DB9-AE24-4A1C-80F8-2DF069F955D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6680E02C-7F0E-42B7-8AD9-4CE2C6188EAF}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C607378-DAEE-4DEA-98BD-D61810316CAC}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="534">
   <si>
     <t>Población según el número de días por semana que realizan alguna actividad física moderada con una duración de al menos 10 minutos en 2023 (Tasa respuesta: 41,59%)</t>
   </si>
@@ -71,1558 +71,1570 @@
     <t>9,25%</t>
   </si>
   <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
   </si>
   <si>
     <t>8,96%</t>
   </si>
   <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>38,14%</t>
+  </si>
+  <si>
+    <t>29,33%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>64,8%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>40,91%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>43,57%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>18,56%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>46,17%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>26,38%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
+  </si>
+  <si>
+    <t>78,77%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>49,0%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>44,66%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>43,46%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>41,48%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>29,33%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>33,95%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>64,8%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>71,11%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
-  </si>
-  <si>
-    <t>50,65%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>2,94%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>24,22%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>35,03%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>45,01%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>36,65%</t>
+  </si>
+  <si>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>1,96%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>83,07%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>75,77%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>78,77%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>37,52%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>36,02%</t>
-  </si>
-  <si>
-    <t>48,04%</t>
-  </si>
-  <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>21,49%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>29,94%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>39,48%</t>
-  </si>
-  <si>
-    <t>36,65%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
+    <t>3,49%</t>
   </si>
   <si>
     <t>3,07%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -2037,7 +2049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16CDA226-5772-4326-8B4E-4AC78CCEE644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B000E1-F2E9-4D74-84A6-009871F11B3E}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2335,7 +2347,7 @@
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -2344,10 +2356,10 @@
         <v>19096</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>23</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>44</v>
@@ -2655,10 +2667,10 @@
         <v>86</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2685,13 @@
         <v>34827</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>15</v>
@@ -2688,13 +2700,13 @@
         <v>14614</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>41</v>
@@ -2703,7 +2715,7 @@
         <v>49440</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>95</v>
@@ -2895,10 +2907,10 @@
         <v>127</v>
       </c>
       <c r="K18" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M18" s="7">
         <v>14</v>
@@ -2907,13 +2919,13 @@
         <v>12165</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,7 +2981,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B20" s="5">
         <v>7</v>
@@ -2981,13 +2993,13 @@
         <v>34829</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>48</v>
@@ -2996,13 +3008,13 @@
         <v>33274</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>89</v>
@@ -3011,13 +3023,13 @@
         <v>68103</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3044,13 @@
         <v>1508</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -3047,13 +3059,13 @@
         <v>3993</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M21" s="7">
         <v>6</v>
@@ -3062,13 +3074,13 @@
         <v>5501</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3083,13 +3095,13 @@
         <v>10371</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -3098,13 +3110,13 @@
         <v>22536</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -3113,13 +3125,13 @@
         <v>32907</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3134,13 +3146,13 @@
         <v>6015</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>14</v>
@@ -3149,13 +3161,13 @@
         <v>10849</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>20</v>
@@ -3164,13 +3176,13 @@
         <v>16864</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3185,13 +3197,13 @@
         <v>14870</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -3200,13 +3212,13 @@
         <v>18797</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M24" s="7">
         <v>37</v>
@@ -3215,13 +3227,13 @@
         <v>33667</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3248,13 @@
         <v>5753</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -3251,13 +3263,13 @@
         <v>9008</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M25" s="7">
         <v>19</v>
@@ -3266,13 +3278,13 @@
         <v>14761</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3299,13 @@
         <v>6753</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -3302,13 +3314,13 @@
         <v>6011</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M26" s="7">
         <v>17</v>
@@ -3317,13 +3329,13 @@
         <v>12764</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3379,7 +3391,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5">
         <v>7</v>
@@ -3391,13 +3403,13 @@
         <v>38892</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H28" s="7">
         <v>46</v>
@@ -3406,13 +3418,13 @@
         <v>29592</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M28" s="7">
         <v>97</v>
@@ -3421,13 +3433,13 @@
         <v>68484</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,13 +3454,13 @@
         <v>1523</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -3457,13 +3469,13 @@
         <v>5937</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M29" s="7">
         <v>11</v>
@@ -3472,13 +3484,13 @@
         <v>7460</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,13 +3505,13 @@
         <v>13628</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H30" s="7">
         <v>41</v>
@@ -3508,13 +3520,13 @@
         <v>26514</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="M30" s="7">
         <v>56</v>
@@ -3523,13 +3535,13 @@
         <v>40142</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3556,13 @@
         <v>8536</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>16</v>
@@ -3559,13 +3571,13 @@
         <v>11041</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K31" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M31" s="7">
         <v>26</v>
@@ -3712,13 +3724,13 @@
         <v>8600</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M34" s="7">
         <v>19</v>
@@ -3855,10 +3867,10 @@
         <v>264</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>146</v>
+        <v>265</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H37" s="7">
         <v>16</v>
@@ -3867,13 +3879,13 @@
         <v>6631</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M37" s="7">
         <v>22</v>
@@ -3882,13 +3894,13 @@
         <v>12823</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>98</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3903,13 +3915,13 @@
         <v>9722</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>101</v>
+        <v>272</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>113</v>
+        <v>273</v>
       </c>
       <c r="H38" s="7">
         <v>27</v>
@@ -3918,13 +3930,13 @@
         <v>14869</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M38" s="7">
         <v>45</v>
@@ -3933,13 +3945,13 @@
         <v>24590</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>113</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3954,13 +3966,13 @@
         <v>8771</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="H39" s="7">
         <v>13</v>
@@ -3969,13 +3981,13 @@
         <v>7700</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="M39" s="7">
         <v>23</v>
@@ -3984,13 +3996,13 @@
         <v>16471</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4005,13 +4017,13 @@
         <v>13129</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="H40" s="7">
         <v>8</v>
@@ -4020,13 +4032,13 @@
         <v>4879</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>287</v>
+        <v>144</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="M40" s="7">
         <v>22</v>
@@ -4035,13 +4047,13 @@
         <v>18008</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,13 +4068,13 @@
         <v>601</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="H41" s="7">
         <v>2</v>
@@ -4071,13 +4083,13 @@
         <v>932</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>125</v>
+        <v>298</v>
       </c>
       <c r="K41" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="M41" s="7">
         <v>3</v>
@@ -4086,13 +4098,13 @@
         <v>1533</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,13 +4119,13 @@
         <v>707</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -4122,13 +4134,13 @@
         <v>1665</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="M42" s="7">
         <v>2</v>
@@ -4137,13 +4149,13 @@
         <v>2372</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="P42" s="7" t="s">
         <v>63</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,7 +4211,7 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B44" s="5">
         <v>7</v>
@@ -4211,13 +4223,13 @@
         <v>4831</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>100</v>
+        <v>311</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H44" s="7">
         <v>11</v>
@@ -4226,13 +4238,13 @@
         <v>6532</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>241</v>
+        <v>313</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="M44" s="7">
         <v>17</v>
@@ -4241,13 +4253,13 @@
         <v>11362</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,13 +4274,13 @@
         <v>982</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="F45" s="7" t="s">
         <v>63</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="H45" s="7">
         <v>2</v>
@@ -4277,13 +4289,13 @@
         <v>1505</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="K45" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>314</v>
+        <v>96</v>
       </c>
       <c r="M45" s="7">
         <v>3</v>
@@ -4292,13 +4304,13 @@
         <v>2487</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4313,13 +4325,13 @@
         <v>3671</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="H46" s="7">
         <v>8</v>
@@ -4328,13 +4340,13 @@
         <v>4949</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M46" s="7">
         <v>12</v>
@@ -4343,13 +4355,13 @@
         <v>8620</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4376,13 @@
         <v>2547</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="H47" s="7">
         <v>5</v>
@@ -4379,13 +4391,13 @@
         <v>3841</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>127</v>
+        <v>319</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="M47" s="7">
         <v>8</v>
@@ -4394,13 +4406,13 @@
         <v>6388</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4415,13 +4427,13 @@
         <v>9765</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>335</v>
+        <v>199</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="H48" s="7">
         <v>24</v>
@@ -4430,13 +4442,13 @@
         <v>17222</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M48" s="7">
         <v>34</v>
@@ -4445,13 +4457,13 @@
         <v>26987</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>341</v>
+        <v>29</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4466,13 +4478,13 @@
         <v>5495</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>62</v>
+        <v>348</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="H49" s="7">
         <v>20</v>
@@ -4481,13 +4493,13 @@
         <v>11851</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="M49" s="7">
         <v>26</v>
@@ -4496,13 +4508,13 @@
         <v>17346</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>350</v>
+        <v>153</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4517,13 +4529,13 @@
         <v>5568</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="H50" s="7">
         <v>0</v>
@@ -4538,7 +4550,7 @@
         <v>64</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="M50" s="7">
         <v>5</v>
@@ -4547,13 +4559,13 @@
         <v>5568</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4609,7 +4621,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B52" s="5">
         <v>7</v>
@@ -4621,13 +4633,13 @@
         <v>146526</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="H52" s="7">
         <v>164</v>
@@ -4636,13 +4648,13 @@
         <v>121296</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="M52" s="7">
         <v>298</v>
@@ -4651,13 +4663,13 @@
         <v>267822</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4672,13 +4684,13 @@
         <v>19009</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>13</v>
+        <v>375</v>
       </c>
       <c r="H53" s="7">
         <v>15</v>
@@ -4687,13 +4699,13 @@
         <v>10061</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="M53" s="7">
         <v>33</v>
@@ -4702,13 +4714,13 @@
         <v>29070</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4723,13 +4735,13 @@
         <v>54150</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>377</v>
+        <v>325</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="H54" s="7">
         <v>78</v>
@@ -4738,13 +4750,13 @@
         <v>57183</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M54" s="7">
         <v>126</v>
@@ -4753,13 +4765,13 @@
         <v>111333</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>383</v>
+        <v>174</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4774,13 +4786,13 @@
         <v>23502</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>224</v>
+        <v>389</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H55" s="7">
         <v>44</v>
@@ -4789,13 +4801,13 @@
         <v>37497</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M55" s="7">
         <v>69</v>
@@ -4804,13 +4816,13 @@
         <v>60999</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>105</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4837,13 @@
         <v>58385</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>393</v>
+        <v>201</v>
       </c>
       <c r="H56" s="7">
         <v>72</v>
@@ -4840,13 +4852,13 @@
         <v>54751</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>395</v>
+        <v>39</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="M56" s="7">
         <v>119</v>
@@ -4855,13 +4867,13 @@
         <v>113136</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4888,13 @@
         <v>35074</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H57" s="7">
         <v>57</v>
@@ -4891,13 +4903,13 @@
         <v>46777</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>403</v>
+        <v>215</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>121</v>
+        <v>406</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M57" s="7">
         <v>86</v>
@@ -4906,13 +4918,13 @@
         <v>81852</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,13 +4939,13 @@
         <v>14026</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>408</v>
+        <v>304</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H58" s="7">
         <v>12</v>
@@ -4942,13 +4954,13 @@
         <v>8195</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M58" s="7">
         <v>25</v>
@@ -4957,13 +4969,13 @@
         <v>22222</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
@@ -5019,7 +5031,7 @@
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B60" s="5">
         <v>7</v>
@@ -5031,13 +5043,13 @@
         <v>43541</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="H60" s="7">
         <v>50</v>
@@ -5046,13 +5058,13 @@
         <v>37626</v>
       </c>
       <c r="J60" s="7" t="s">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="K60" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M60" s="7">
         <v>91</v>
@@ -5061,13 +5073,13 @@
         <v>81167</v>
       </c>
       <c r="O60" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="P60" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>424</v>
+        <v>243</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5094,13 @@
         <v>20706</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>390</v>
+        <v>428</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>426</v>
+        <v>121</v>
       </c>
       <c r="H61" s="7">
         <v>16</v>
@@ -5097,13 +5109,13 @@
         <v>13884</v>
       </c>
       <c r="J61" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="K61" s="7" t="s">
-        <v>252</v>
+        <v>431</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="M61" s="7">
         <v>36</v>
@@ -5112,13 +5124,13 @@
         <v>34590</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="P61" s="7" t="s">
-        <v>126</v>
+        <v>434</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,13 +5145,13 @@
         <v>102529</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="H62" s="7">
         <v>59</v>
@@ -5148,13 +5160,13 @@
         <v>51352</v>
       </c>
       <c r="J62" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="M62" s="7">
         <v>146</v>
@@ -5163,13 +5175,13 @@
         <v>153881</v>
       </c>
       <c r="O62" s="7" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,13 +5196,13 @@
         <v>27230</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="H63" s="7">
         <v>16</v>
@@ -5199,13 +5211,13 @@
         <v>24029</v>
       </c>
       <c r="J63" s="7" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="K63" s="7" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M63" s="7">
         <v>38</v>
@@ -5214,13 +5226,13 @@
         <v>51259</v>
       </c>
       <c r="O63" s="7" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="P63" s="7" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5235,13 +5247,13 @@
         <v>77879</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H64" s="7">
         <v>96</v>
@@ -5250,13 +5262,13 @@
         <v>90316</v>
       </c>
       <c r="J64" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K64" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="M64" s="7">
         <v>150</v>
@@ -5265,13 +5277,13 @@
         <v>168195</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5286,13 +5298,13 @@
         <v>22270</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="H65" s="7">
         <v>27</v>
@@ -5301,13 +5313,13 @@
         <v>25673</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="K65" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>334</v>
+        <v>467</v>
       </c>
       <c r="M65" s="7">
         <v>46</v>
@@ -5316,13 +5328,13 @@
         <v>47943</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>463</v>
+        <v>55</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5337,13 +5349,13 @@
         <v>16345</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>315</v>
+        <v>471</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="H66" s="7">
         <v>7</v>
@@ -5352,13 +5364,13 @@
         <v>6908</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M66" s="7">
         <v>22</v>
@@ -5367,13 +5379,13 @@
         <v>23252</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>470</v>
+        <v>223</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5441,13 +5453,13 @@
         <v>545632</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="H68" s="7">
         <v>884</v>
@@ -5456,13 +5468,13 @@
         <v>553872</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="M68" s="7">
         <v>1467</v>
@@ -5471,13 +5483,13 @@
         <v>1099505</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5492,13 +5504,13 @@
         <v>64309</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>252</v>
+        <v>488</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="H69" s="7">
         <v>81</v>
@@ -5507,13 +5519,13 @@
         <v>53040</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>181</v>
+        <v>492</v>
       </c>
       <c r="M69" s="7">
         <v>149</v>
@@ -5522,13 +5534,13 @@
         <v>117349</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>487</v>
+        <v>321</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
@@ -5543,13 +5555,13 @@
         <v>304845</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="H70" s="7">
         <v>384</v>
@@ -5558,13 +5570,13 @@
         <v>257319</v>
       </c>
       <c r="J70" s="7" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="K70" s="7" t="s">
-        <v>200</v>
+        <v>340</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="M70" s="7">
         <v>679</v>
@@ -5573,13 +5585,13 @@
         <v>562164</v>
       </c>
       <c r="O70" s="7" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="P70" s="7" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5594,13 +5606,13 @@
         <v>116314</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="H71" s="7">
         <v>138</v>
@@ -5609,13 +5621,13 @@
         <v>115493</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="K71" s="7" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="M71" s="7">
         <v>246</v>
@@ -5624,13 +5636,13 @@
         <v>231807</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>505</v>
+        <v>102</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5645,13 +5657,13 @@
         <v>284398</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="H72" s="7">
         <v>407</v>
@@ -5660,13 +5672,13 @@
         <v>304377</v>
       </c>
       <c r="J72" s="7" t="s">
-        <v>509</v>
+        <v>46</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>511</v>
+        <v>234</v>
       </c>
       <c r="M72" s="7">
         <v>653</v>
@@ -5675,13 +5687,13 @@
         <v>588775</v>
       </c>
       <c r="O72" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="P72" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5696,13 +5708,13 @@
         <v>142860</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="H73" s="7">
         <v>227</v>
@@ -5711,13 +5723,13 @@
         <v>165289</v>
       </c>
       <c r="J73" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="K73" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>520</v>
+        <v>39</v>
       </c>
       <c r="M73" s="7">
         <v>337</v>
@@ -5726,13 +5738,13 @@
         <v>308149</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5747,13 +5759,13 @@
         <v>52842</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>181</v>
+        <v>526</v>
       </c>
       <c r="H74" s="7">
         <v>56</v>
@@ -5762,13 +5774,13 @@
         <v>39250</v>
       </c>
       <c r="J74" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="K74" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="M74" s="7">
         <v>105</v>
@@ -5777,13 +5789,13 @@
         <v>92092</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="P74" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>93</v>
+        <v>532</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5839,7 +5851,7 @@
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34C1_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34C1_2023-Provincia-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D665DB9-AE24-4A1C-80F8-2DF069F955D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17DAFB47-80E5-451D-87BF-9D433FCA6C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5C607378-DAEE-4DEA-98BD-D61810316CAC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1D4E0D3A-65DC-4AA1-965A-E1A6E7F7E7DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -2049,7 +2049,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B000E1-F2E9-4D74-84A6-009871F11B3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4189645C-ADED-4887-A818-158EAC3FBDDF}">
   <dimension ref="A1:Q76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
